--- a/db/visitor logs.xlsx
+++ b/db/visitor logs.xlsx
@@ -623,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -632,6 +632,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,7 +932,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -956,7 +959,7 @@
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1"/>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -970,7 +973,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -982,7 +985,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -994,7 +997,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1006,7 +1009,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -1018,7 +1021,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1030,7 +1033,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1042,7 +1045,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1055,7 +1058,7 @@
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1"/>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B12" t="s">
@@ -1069,7 +1072,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -1081,7 +1084,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -1093,7 +1096,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -1105,7 +1108,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>37</v>
       </c>
@@ -1117,7 +1120,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>40</v>
       </c>
@@ -1129,7 +1132,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>43</v>
       </c>
@@ -1141,7 +1144,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -1153,7 +1156,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -1165,7 +1168,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>52</v>
       </c>
@@ -1177,7 +1180,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4"/>
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>55</v>
       </c>
@@ -1189,7 +1192,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4"/>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>59</v>
       </c>
@@ -1201,7 +1204,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4"/>
+      <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -1213,7 +1216,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4"/>
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>64</v>
       </c>
@@ -1225,7 +1228,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4"/>
+      <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>68</v>
       </c>
@@ -1237,7 +1240,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="4"/>
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>70</v>
       </c>
@@ -1249,7 +1252,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4"/>
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>75</v>
       </c>
@@ -1262,7 +1265,7 @@
     </row>
     <row r="29" spans="1:4" s="3" customFormat="1"/>
     <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B30" t="s">
@@ -1276,7 +1279,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4"/>
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>82</v>
       </c>
@@ -1288,7 +1291,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4"/>
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>86</v>
       </c>
@@ -1300,7 +1303,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4"/>
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>89</v>
       </c>
@@ -1312,7 +1315,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4"/>
+      <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>92</v>
       </c>
@@ -1324,7 +1327,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4"/>
+      <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>98</v>
       </c>
@@ -1336,7 +1339,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4"/>
+      <c r="A36" s="6"/>
       <c r="B36" t="s">
         <v>95</v>
       </c>
@@ -1348,7 +1351,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4"/>
+      <c r="A37" s="6"/>
       <c r="B37" t="s">
         <v>101</v>
       </c>
@@ -1360,7 +1363,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4"/>
+      <c r="A38" s="6"/>
       <c r="B38" t="s">
         <v>104</v>
       </c>
@@ -1372,7 +1375,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4"/>
+      <c r="A39" s="6"/>
       <c r="B39" t="s">
         <v>9</v>
       </c>
@@ -1384,7 +1387,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4"/>
+      <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>109</v>
       </c>
@@ -1396,7 +1399,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4"/>
+      <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>111</v>
       </c>
@@ -1408,7 +1411,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4"/>
+      <c r="A42" s="6"/>
       <c r="B42" t="s">
         <v>115</v>
       </c>
@@ -1420,7 +1423,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4"/>
+      <c r="A43" s="6"/>
       <c r="B43" t="s">
         <v>118</v>
       </c>
@@ -1432,7 +1435,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4"/>
+      <c r="A44" s="6"/>
       <c r="B44" t="s">
         <v>121</v>
       </c>
@@ -1444,7 +1447,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4"/>
+      <c r="A45" s="6"/>
       <c r="B45" t="s">
         <v>124</v>
       </c>
@@ -1456,7 +1459,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4"/>
+      <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>126</v>
       </c>
@@ -1468,7 +1471,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4"/>
+      <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>128</v>
       </c>
@@ -1480,7 +1483,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4"/>
+      <c r="A48" s="6"/>
       <c r="B48" t="s">
         <v>129</v>
       </c>
@@ -1492,7 +1495,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="4"/>
+      <c r="A49" s="6"/>
       <c r="B49" t="s">
         <v>136</v>
       </c>
@@ -1504,7 +1507,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4"/>
+      <c r="A50" s="6"/>
       <c r="B50" t="s">
         <v>140</v>
       </c>
@@ -1516,7 +1519,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="4"/>
+      <c r="A51" s="6"/>
       <c r="B51" t="s">
         <v>143</v>
       </c>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="52" spans="1:4" s="3" customFormat="1"/>
     <row r="53" spans="1:4">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B53" t="s">
@@ -1543,7 +1546,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="4"/>
+      <c r="A54" s="6"/>
       <c r="B54" t="s">
         <v>86</v>
       </c>
@@ -1555,7 +1558,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="4"/>
+      <c r="A55" s="6"/>
       <c r="B55" t="s">
         <v>151</v>
       </c>
@@ -1567,7 +1570,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="4"/>
+      <c r="A56" s="6"/>
       <c r="B56" t="s">
         <v>154</v>
       </c>
@@ -1579,7 +1582,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="4"/>
+      <c r="A57" s="6"/>
       <c r="B57" t="s">
         <v>161</v>
       </c>
@@ -1591,7 +1594,7 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="4"/>
+      <c r="A58" s="6"/>
       <c r="B58" t="s">
         <v>162</v>
       </c>
@@ -1603,7 +1606,7 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="6"/>
       <c r="B59" t="s">
         <v>165</v>
       </c>
@@ -1615,7 +1618,7 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4"/>
+      <c r="A60" s="6"/>
       <c r="B60" t="s">
         <v>168</v>
       </c>
@@ -1627,7 +1630,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="4"/>
+      <c r="A61" s="6"/>
       <c r="B61" t="s">
         <v>171</v>
       </c>
@@ -1639,7 +1642,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="4"/>
+      <c r="A62" s="6"/>
       <c r="B62" t="s">
         <v>173</v>
       </c>
@@ -1651,7 +1654,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="4"/>
+      <c r="A63" s="6"/>
       <c r="B63" t="s">
         <v>177</v>
       </c>
@@ -1663,7 +1666,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="4"/>
+      <c r="A64" s="6"/>
       <c r="B64" t="s">
         <v>180</v>
       </c>
@@ -1676,7 +1679,7 @@
     </row>
     <row r="65" spans="1:4" s="3" customFormat="1"/>
     <row r="66" spans="1:4">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B66" t="s">
